--- a/results/Auto/genero-m1_me_parece_muy_adjetivonegativo-m2.xlsx
+++ b/results/Auto/genero-m1_me_parece_muy_adjetivonegativo-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02406376786530018</v>
+        <v>4.68206771131463e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0.005043752025812864</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01719150319695473</v>
+        <v>5.657677437653774e-09</v>
       </c>
       <c r="E3" t="n">
         <v>0.0008450521854683757</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01488825026899576</v>
+        <v>2.263292842030751e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0.0001724813046166673</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005041714292019606</v>
+        <v>1.330247112463212e-08</v>
       </c>
       <c r="E5" t="n">
         <v>0.000109488632006105</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005305845756083727</v>
+        <v>5.607683650765694e-09</v>
       </c>
       <c r="E6" t="n">
         <v>0.0004369365051388741</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00364444637671113</v>
+        <v>1.068088550937318e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.0002760693896561861</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002833170350641012</v>
+        <v>1.437666696801898e-08</v>
       </c>
       <c r="E8" t="n">
         <v>0.0002807324926834553</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00410070875659585</v>
+        <v>5.988493700925801e-09</v>
       </c>
       <c r="E9" t="n">
         <v>9.129795216722414e-05</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001278433715924621</v>
+        <v>2.390368569749057e-09</v>
       </c>
       <c r="E10" t="n">
         <v>8.085095032583922e-06</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01766274683177471</v>
+        <v>2.060225590128084e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.0001440416963305324</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198648739606142</v>
+        <v>3.594854636190803e-09</v>
       </c>
       <c r="E12" t="n">
         <v>0.0002807769051287323</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005072849337011576</v>
+        <v>3.004596038636009e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0009820455452427268</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00384596548974514</v>
+        <v>3.669470727274415e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0004849683318752795</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009860372170805931</v>
+        <v>1.86249380362824e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.0007121252128854394</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01725543290376663</v>
+        <v>4.708547329812518e-09</v>
       </c>
       <c r="E16" t="n">
         <v>8.074210927588865e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04610789567232132</v>
+        <v>1.34625350867168e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0001372869446640834</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01226223353296518</v>
+        <v>8.317821986736362e-09</v>
       </c>
       <c r="E18" t="n">
         <v>0.0003445374022703618</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0005113693769089878</v>
+        <v>2.518824704367262e-09</v>
       </c>
       <c r="E19" t="n">
         <v>3.254030161770061e-05</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005066440440714359</v>
+        <v>2.484403260893941e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.000314796605380252</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01351001393049955</v>
+        <v>4.4924883257913e-10</v>
       </c>
       <c r="E21" t="n">
         <v>6.366587513184641e-06</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003719484433531761</v>
+        <v>5.596694663267954e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.0006872393423691392</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01993463933467865</v>
+        <v>9.191019501031406e-09</v>
       </c>
       <c r="E23" t="n">
         <v>8.003434777492657e-05</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03776438906788826</v>
+        <v>9.785961374575436e-09</v>
       </c>
       <c r="E24" t="n">
         <v>0.000370948197087273</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01021298859268427</v>
+        <v>1.028309526418525e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.001281625824049115</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009985780343413353</v>
+        <v>6.408782393663159e-09</v>
       </c>
       <c r="E26" t="n">
         <v>0.0002480577386450022</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002198168309405446</v>
+        <v>6.364565763306018e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0001500138896517456</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002512355567887425</v>
+        <v>6.240302941051823e-09</v>
       </c>
       <c r="E28" t="n">
         <v>0.0003512821567710489</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004849190823733807</v>
+        <v>1.061558574377841e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.00043249930604361</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0007862093625590205</v>
+        <v>6.881702319105898e-09</v>
       </c>
       <c r="E30" t="n">
         <v>0.0001805774954846129</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002989263040944934</v>
+        <v>1.019283990544295e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.0002898229286074638</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004512217361479998</v>
+        <v>4.933066455325985e-11</v>
       </c>
       <c r="E32" t="n">
         <v>1.947951886904775e-06</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03875643387436867</v>
+        <v>8.622972558214315e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.0004831330152228475</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01043825875967741</v>
+        <v>1.374156521904979e-08</v>
       </c>
       <c r="E34" t="n">
         <v>7.171447941800579e-05</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003832732560113072</v>
+        <v>9.22367515698852e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.001478927442803979</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002524829003959894</v>
+        <v>3.34563909909491e-09</v>
       </c>
       <c r="E36" t="n">
         <v>6.814118478359887e-07</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00586710125207901</v>
+        <v>4.648283535857445e-09</v>
       </c>
       <c r="E37" t="n">
         <v>3.050979830732103e-05</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005376568529754877</v>
+        <v>5.358967936075487e-09</v>
       </c>
       <c r="E38" t="n">
         <v>0.0002813932078424841</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002751330845057964</v>
+        <v>1.614442446395969e-08</v>
       </c>
       <c r="E39" t="n">
         <v>0.0001459504128433764</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005291368346661329</v>
+        <v>4.747271464822234e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.001636552275158465</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02027173526585102</v>
+        <v>7.272133450975105e-10</v>
       </c>
       <c r="E41" t="n">
         <v>6.213149026734754e-05</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007616371847689152</v>
+        <v>2.591650893890574e-09</v>
       </c>
       <c r="E42" t="n">
         <v>5.660419628839009e-05</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02145996689796448</v>
+        <v>8.878424107017224e-10</v>
       </c>
       <c r="E43" t="n">
         <v>9.521908395981882e-06</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02015938237309456</v>
+        <v>1.747426203735358e-08</v>
       </c>
       <c r="E44" t="n">
         <v>0.0004991288878954947</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006576604675501585</v>
+        <v>1.26290278235075e-09</v>
       </c>
       <c r="E45" t="n">
         <v>5.742474968428724e-06</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.005730238743126392</v>
+        <v>5.922190737805977e-09</v>
       </c>
       <c r="E46" t="n">
         <v>6.266323907766491e-05</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02342337369918823</v>
+        <v>3.779460300279425e-08</v>
       </c>
       <c r="E47" t="n">
         <v>0.001137187238782644</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004656043369323015</v>
+        <v>3.963906181070342e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.0006265101255849004</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009215411730110645</v>
+        <v>1.704053786966142e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.0004624965949915349</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005701995920389891</v>
+        <v>7.147939129481529e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.0002338961348868906</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008240957744419575</v>
+        <v>4.513703544262171e-08</v>
       </c>
       <c r="E51" t="n">
         <v>0.0012717709178105</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00957630667835474</v>
+        <v>2.981349211950146e-08</v>
       </c>
       <c r="E52" t="n">
         <v>0.00332110864110291</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006168127059936523</v>
+        <v>1.377437985894403e-08</v>
       </c>
       <c r="E53" t="n">
         <v>0.0001417704042978585</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01752802357077599</v>
+        <v>1.377377856215389e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.002366930479183793</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03226562961935997</v>
+        <v>8.106483484482396e-09</v>
       </c>
       <c r="E55" t="n">
         <v>0.0001052190273185261</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0379226915538311</v>
+        <v>1.647510039504141e-08</v>
       </c>
       <c r="E56" t="n">
         <v>0.0003077851433772594</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001825676765292883</v>
+        <v>5.614754883254136e-09</v>
       </c>
       <c r="E57" t="n">
         <v>3.14516328216996e-05</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02741598151624203</v>
+        <v>8.025749842488494e-09</v>
       </c>
       <c r="E58" t="n">
         <v>0.000881911430042237</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.004038458690047264</v>
+        <v>2.885916217110207e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.0002850223099812865</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004129061009734869</v>
+        <v>8.202452050909415e-09</v>
       </c>
       <c r="E60" t="n">
         <v>0.0009256104240193963</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01158006954938173</v>
+        <v>6.404806907056582e-09</v>
       </c>
       <c r="E61" t="n">
         <v>5.740022606914863e-05</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02124345675110817</v>
+        <v>4.423661792429812e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.001688861986622214</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01455609872937202</v>
+        <v>4.081267823696777e-10</v>
       </c>
       <c r="E63" t="n">
         <v>0.001292278757318854</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002339277416467667</v>
+        <v>2.282438238410123e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.0007927861297503114</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.003625934245064855</v>
+        <v>1.164832230671209e-08</v>
       </c>
       <c r="E65" t="n">
         <v>0.0003467998758424073</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007869902066886425</v>
+        <v>2.121989339798347e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.0001668529148446396</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008754518814384937</v>
+        <v>8.430702358452891e-09</v>
       </c>
       <c r="E67" t="n">
         <v>0.0001046516626956873</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01034512184560299</v>
+        <v>1.9416827257146e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.001992274075746536</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03771299123764038</v>
+        <v>1.242545089041869e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0002171863161493093</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.007179691456258297</v>
+        <v>2.243232799514772e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0002499433467164636</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007957415655255318</v>
+        <v>3.72630992728773e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.0002830289886333048</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05446071922779083</v>
+        <v>3.037274609596352e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0002570570213720202</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02678762562572956</v>
+        <v>4.989080082395958e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.0002210507664131001</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01588458195328712</v>
+        <v>2.449376523827596e-08</v>
       </c>
       <c r="E74" t="n">
         <v>0.0009464212926104665</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004041421227157116</v>
+        <v>7.249282507615362e-09</v>
       </c>
       <c r="E75" t="n">
         <v>0.0001083775277948007</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003706851275637746</v>
+        <v>4.222647120855072e-09</v>
       </c>
       <c r="E76" t="n">
         <v>0.0009724439005367458</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01052628736943007</v>
+        <v>2.842608148867498e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0002793294261209667</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.007492900360375643</v>
+        <v>4.574509659960313e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.0003828184271696955</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.003556701820343733</v>
+        <v>1.40849323315706e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.0005632233223877847</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02222867123782635</v>
+        <v>6.018388010176068e-09</v>
       </c>
       <c r="E80" t="n">
         <v>0.001123932539485395</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0113965542986989</v>
+        <v>3.334680798161571e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0001085695112124085</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09632644057273865</v>
+        <v>8.552428210073515e-10</v>
       </c>
       <c r="E82" t="n">
         <v>0.0001524596882518381</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01435446180403233</v>
+        <v>2.4841128265507e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.0003177434264216572</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0159038882702589</v>
+        <v>5.503746347557126e-09</v>
       </c>
       <c r="E84" t="n">
         <v>0.0005761580541729927</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0009210666175931692</v>
+        <v>7.080813713145062e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.0002229696401627734</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.007203418761491776</v>
+        <v>1.245132663640902e-09</v>
       </c>
       <c r="E86" t="n">
         <v>5.173462341190316e-05</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01270883716642857</v>
+        <v>7.695403203555884e-10</v>
       </c>
       <c r="E87" t="n">
         <v>6.757970550097525e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002141519915312529</v>
+        <v>1.056359177908917e-08</v>
       </c>
       <c r="E88" t="n">
         <v>0.0008083879365585744</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005476776510477066</v>
+        <v>1.159375795367623e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.001157738734036684</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.004033127799630165</v>
+        <v>1.976185259877639e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.0002477694943081588</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01023707911372185</v>
+        <v>2.479392513521361e-08</v>
       </c>
       <c r="E91" t="n">
         <v>0.0002765265817288309</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.006329783704131842</v>
+        <v>2.570095603005029e-08</v>
       </c>
       <c r="E92" t="n">
         <v>0.000158007416757755</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001691627083346248</v>
+        <v>7.834866089240222e-09</v>
       </c>
       <c r="E93" t="n">
         <v>9.298519580624998e-05</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0202363133430481</v>
+        <v>1.926040482658209e-08</v>
       </c>
       <c r="E94" t="n">
         <v>0.0009174218284897506</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02763533592224121</v>
+        <v>3.447840413173253e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.0002039764658547938</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004314732272177935</v>
+        <v>6.762780113689359e-09</v>
       </c>
       <c r="E96" t="n">
         <v>0.0007937821210362017</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.003249488305300474</v>
+        <v>1.688568951330183e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.0008061002008616924</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004107598681002855</v>
+        <v>3.507857115891966e-09</v>
       </c>
       <c r="E98" t="n">
         <v>0.0001480978244217113</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02928287163376808</v>
+        <v>5.352682741488479e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.0002265904186060652</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004869825672358274</v>
+        <v>1.580945330204031e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.0002678212476894259</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.006494738627225161</v>
+        <v>4.896681726762608e-09</v>
       </c>
       <c r="E101" t="n">
         <v>0.0002688603417482227</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
